--- a/with logs for unschedule with saturday sunday/excel_schedules/room_182_genetic_schedule.xlsx
+++ b/with logs for unschedule with saturday sunday/excel_schedules/room_182_genetic_schedule.xlsx
@@ -658,7 +658,7 @@
           <t>6:00 PM - 6:30 PM</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
+      <c r="F22" s="2" t="inlineStr">
         <is>
           <t>AL 400 - Algorithms
 3A
@@ -672,7 +672,7 @@
           <t>6:30 PM - 7:00 PM</t>
         </is>
       </c>
-      <c r="E23" s="2" t="n"/>
+      <c r="F23" s="2" t="n"/>
     </row>
     <row r="24" ht="50" customHeight="1">
       <c r="A24" s="2" t="inlineStr">
@@ -680,7 +680,7 @@
           <t>7:00 PM - 7:30 PM</t>
         </is>
       </c>
-      <c r="E24" s="2" t="n"/>
+      <c r="F24" s="2" t="n"/>
     </row>
     <row r="25" ht="50" customHeight="1">
       <c r="A25" s="2" t="inlineStr">
@@ -705,7 +705,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="F22:F24"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
